--- a/ArticleManage/main_working_folder/output_folders/Data 73 Experimental evaluation of activated/Data73_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 73 Experimental evaluation of activated/Data73_all_graphs_excel.xlsx
@@ -14067,7 +14067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14088,429 +14088,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.118</v>
+        <v>0.0579</v>
       </c>
       <c r="B3" s="0">
-        <v>58.1637</v>
+        <v>38.8753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.136</v>
+        <v>0.0767</v>
       </c>
       <c r="B4" s="0">
-        <v>62.3328</v>
+        <v>46.3644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.154</v>
+        <v>0.0945</v>
       </c>
       <c r="B5" s="0">
-        <v>65.9257</v>
+        <v>52.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.172</v>
+        <v>0.1074</v>
       </c>
       <c r="B6" s="0">
-        <v>69.1147</v>
+        <v>55.2088</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.19</v>
+        <v>0.1183</v>
       </c>
       <c r="B7" s="0">
-        <v>71.6709</v>
+        <v>59.2933</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.208</v>
+        <v>0.1342</v>
       </c>
       <c r="B8" s="0">
-        <v>74.0378</v>
+        <v>61.3277</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.226</v>
+        <v>0.154</v>
       </c>
       <c r="B9" s="0">
-        <v>76.7224</v>
+        <v>66.7696</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.244</v>
+        <v>0.1749</v>
       </c>
       <c r="B10" s="0">
-        <v>78.9033</v>
+        <v>70.8466</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.262</v>
+        <v>0.1937</v>
       </c>
       <c r="B11" s="0">
-        <v>80.823</v>
+        <v>72.8787</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.28</v>
+        <v>0.2453</v>
       </c>
       <c r="B12" s="0">
-        <v>82.9598</v>
+        <v>79.6609</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.298</v>
+        <v>0.2949</v>
       </c>
       <c r="B13" s="0">
-        <v>84.5221</v>
+        <v>83.7161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.316</v>
+        <v>0.3593</v>
       </c>
       <c r="B14" s="0">
-        <v>86.0638</v>
+        <v>90.4885</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.334</v>
+        <v>0.397</v>
       </c>
       <c r="B15" s="0">
-        <v>87.8379</v>
+        <v>93.1885</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.352</v>
+        <v>0.4536</v>
       </c>
       <c r="B16" s="0">
-        <v>89.4579</v>
+        <v>97.2384</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.37</v>
+        <v>0.5002</v>
       </c>
       <c r="B17" s="0">
-        <v>90.7665</v>
+        <v>99.9316</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.388</v>
+        <v>0.5537</v>
       </c>
       <c r="B18" s="0">
-        <v>92.282</v>
+        <v>102.6195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.406</v>
+        <v>0.6073</v>
       </c>
       <c r="B19" s="0">
-        <v>93.5216</v>
+        <v>104.6253</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.424</v>
+        <v>0.642</v>
       </c>
       <c r="B20" s="0">
-        <v>94.5711</v>
+        <v>106.6454</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.442</v>
+        <v>0.6975</v>
       </c>
       <c r="B21" s="0">
-        <v>95.877</v>
+        <v>108.6497</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.7402</v>
       </c>
       <c r="B22" s="0">
-        <v>97.027</v>
+        <v>109.9816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.478</v>
+        <v>0.7679</v>
       </c>
       <c r="B23" s="0">
-        <v>98.1329</v>
+        <v>110.6427</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.496</v>
+        <v>0.7917</v>
       </c>
       <c r="B24" s="0">
-        <v>99.2392</v>
+        <v>111.9889</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.514</v>
+        <v>0.8136</v>
       </c>
       <c r="B25" s="0">
-        <v>100.0895</v>
+        <v>113.3366</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.532</v>
+        <v>0.8374</v>
       </c>
       <c r="B26" s="0">
-        <v>101.1892</v>
+        <v>113.3186</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.55</v>
+        <v>0.8562</v>
       </c>
       <c r="B27" s="0">
-        <v>102.2244</v>
+        <v>114.6686</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.568</v>
+        <v>0.8721</v>
       </c>
       <c r="B28" s="0">
-        <v>103.1428</v>
+        <v>114.6565</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.586</v>
+        <v>0.886</v>
       </c>
       <c r="B29" s="0">
-        <v>103.9752</v>
+        <v>116.0103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.604</v>
+        <v>0.9008</v>
       </c>
       <c r="B30" s="0">
-        <v>104.6592</v>
+        <v>115.999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.622</v>
+        <v>0.9107</v>
       </c>
       <c r="B31" s="0">
-        <v>105.6731</v>
+        <v>115.9915</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.9226</v>
       </c>
       <c r="B32" s="0">
-        <v>106.5209</v>
+        <v>115.9825</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.658</v>
+        <v>0.9306</v>
       </c>
       <c r="B33" s="0">
-        <v>107.0106</v>
+        <v>115.9765</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.676</v>
+        <v>0.9425</v>
       </c>
       <c r="B34" s="0">
-        <v>107.9842</v>
+        <v>116.6496</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.694</v>
+        <v>0.9534</v>
       </c>
       <c r="B35" s="0">
-        <v>108.7978</v>
+        <v>116.6413</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.712</v>
+        <v>0.9643</v>
       </c>
       <c r="B36" s="0">
-        <v>109.3425</v>
+        <v>117.9973</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.73</v>
+        <v>0.9782</v>
       </c>
       <c r="B37" s="0">
-        <v>110.1943</v>
+        <v>118.6689</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.748</v>
+        <v>0.9871</v>
       </c>
       <c r="B38" s="0">
-        <v>110.9538</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.766</v>
-      </c>
-      <c r="B39" s="0">
-        <v>111.5803</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.784</v>
-      </c>
-      <c r="B40" s="0">
-        <v>112.2304</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.802</v>
-      </c>
-      <c r="B41" s="0">
-        <v>112.8779</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>113.4649</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.838</v>
-      </c>
-      <c r="B43" s="0">
-        <v>114.018</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.856</v>
-      </c>
-      <c r="B44" s="0">
-        <v>114.0435</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.874</v>
-      </c>
-      <c r="B45" s="0">
-        <v>114.0615</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.892</v>
-      </c>
-      <c r="B46" s="0">
-        <v>114.6418</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.91</v>
-      </c>
-      <c r="B47" s="0">
-        <v>115.201</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.928</v>
-      </c>
-      <c r="B48" s="0">
-        <v>115.774</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.946</v>
-      </c>
-      <c r="B49" s="0">
-        <v>116.3505</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.964</v>
-      </c>
-      <c r="B50" s="0">
-        <v>116.8744</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.982</v>
-      </c>
-      <c r="B51" s="0">
-        <v>117.2313</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.1035</v>
-      </c>
-      <c r="B52" s="0">
-        <v>53.8475</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0777</v>
-      </c>
-      <c r="B53" s="0">
-        <v>46.3637</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0588</v>
-      </c>
-      <c r="B54" s="0">
-        <v>38.8745</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0936</v>
-      </c>
-      <c r="B55" s="0">
-        <v>51.1265</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>118.6621</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -14519,7 +14383,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14540,381 +14404,285 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.06</v>
+        <v>0.0566</v>
       </c>
       <c r="B3" s="0">
-        <v>65.0372</v>
+        <v>62.1757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.08</v>
+        <v>0.0755</v>
       </c>
       <c r="B4" s="0">
-        <v>73.7647</v>
+        <v>72.9054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1</v>
+        <v>0.0943</v>
       </c>
       <c r="B5" s="0">
-        <v>82.118</v>
+        <v>80.4223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12</v>
+        <v>0.1073</v>
       </c>
       <c r="B6" s="0">
-        <v>88.9989</v>
+        <v>84.7199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.14</v>
+        <v>0.1162</v>
       </c>
       <c r="B7" s="0">
-        <v>94.82</v>
+        <v>89.0133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16</v>
+        <v>0.1341</v>
       </c>
       <c r="B8" s="0">
-        <v>99.9707</v>
+        <v>93.3163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.18</v>
+        <v>0.153</v>
       </c>
       <c r="B9" s="0">
-        <v>104.479</v>
+        <v>98.6913</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2</v>
+        <v>0.1728</v>
       </c>
       <c r="B10" s="0">
-        <v>108.0946</v>
+        <v>102.9963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.22</v>
+        <v>0.1927</v>
       </c>
       <c r="B11" s="0">
-        <v>111.7921</v>
+        <v>108.3724</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.24</v>
+        <v>0.2454</v>
       </c>
       <c r="B12" s="0">
-        <v>115.5936</v>
+        <v>118.0673</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.26</v>
+        <v>0.2931</v>
       </c>
       <c r="B13" s="0">
-        <v>118.6551</v>
+        <v>124.5441</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.28</v>
+        <v>0.3567</v>
       </c>
       <c r="B14" s="0">
-        <v>121.6464</v>
+        <v>132.1089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3</v>
+        <v>0.3965</v>
       </c>
       <c r="B15" s="0">
-        <v>124.0131</v>
+        <v>135.3643</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.32</v>
+        <v>0.4531</v>
       </c>
       <c r="B16" s="0">
-        <v>126.0803</v>
+        <v>140.7798</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.34</v>
+        <v>0.4988</v>
       </c>
       <c r="B17" s="0">
-        <v>128.5761</v>
+        <v>145.1125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.36</v>
+        <v>0.5535</v>
       </c>
       <c r="B18" s="0">
-        <v>130.7279</v>
+        <v>148.3839</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.38</v>
+        <v>0.6062</v>
       </c>
       <c r="B19" s="0">
-        <v>132.9535</v>
+        <v>153.7951</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4</v>
+        <v>0.642</v>
       </c>
       <c r="B20" s="0">
-        <v>134.8378</v>
+        <v>152.7625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.42</v>
+        <v>0.6936</v>
       </c>
       <c r="B21" s="0">
-        <v>136.5365</v>
+        <v>156.0307</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.44</v>
+        <v>0.7374</v>
       </c>
       <c r="B22" s="0">
-        <v>138.8934</v>
+        <v>160.3613</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.46</v>
+        <v>0.7672</v>
       </c>
       <c r="B23" s="0">
-        <v>140.5808</v>
+        <v>162.5351</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.793</v>
       </c>
       <c r="B24" s="0">
-        <v>141.8689</v>
+        <v>162.5628</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5</v>
+        <v>0.8129</v>
       </c>
       <c r="B25" s="0">
-        <v>143.3521</v>
+        <v>164.726</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.52</v>
+        <v>0.8358</v>
       </c>
       <c r="B26" s="0">
-        <v>144.8432</v>
+        <v>164.7505</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.54</v>
+        <v>0.8547</v>
       </c>
       <c r="B27" s="0">
-        <v>146.7091</v>
+        <v>164.7707</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.56</v>
+        <v>0.8726</v>
       </c>
       <c r="B28" s="0">
-        <v>148.0899</v>
+        <v>164.7899</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.58</v>
+        <v>0.8855</v>
       </c>
       <c r="B29" s="0">
-        <v>149.1073</v>
+        <v>164.8037</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6</v>
+        <v>0.9004</v>
       </c>
       <c r="B30" s="0">
-        <v>150.3375</v>
+        <v>168.0325</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.62</v>
+        <v>0.9123</v>
       </c>
       <c r="B31" s="0">
-        <v>151.601</v>
+        <v>166.9744</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.9262</v>
       </c>
       <c r="B32" s="0">
-        <v>152.9319</v>
+        <v>168.0602</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.66</v>
+        <v>0.9382</v>
       </c>
       <c r="B33" s="0">
-        <v>154.0237</v>
+        <v>169.1439</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.68</v>
+        <v>0.9531</v>
       </c>
       <c r="B34" s="0">
-        <v>155.36</v>
+        <v>169.1599</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7</v>
+        <v>0.966</v>
       </c>
       <c r="B35" s="0">
-        <v>156.387</v>
+        <v>170.2447</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.72</v>
+        <v>0.9779</v>
       </c>
       <c r="B36" s="0">
-        <v>157.4675</v>
+        <v>170.2575</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.74</v>
+        <v>0.9898</v>
       </c>
       <c r="B37" s="0">
-        <v>158.4204</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B38" s="0">
-        <v>159.4261</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B39" s="0">
-        <v>160.6317</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B40" s="0">
-        <v>161.5464</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B41" s="0">
-        <v>162.585</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>163.6499</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>164.3864</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>165.2525</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>166.1529</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>167.1483</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B47" s="0">
-        <v>167.8781</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B48" s="0">
-        <v>168.756</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9799</v>
-      </c>
-      <c r="B49" s="0">
-        <v>169.1887</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>171.3412</v>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -14923,7 +14691,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14944,413 +14712,309 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0075</v>
       </c>
       <c r="B3" s="0">
-        <v>419.7477</v>
+        <v>382.3373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0283</v>
       </c>
       <c r="B4" s="0">
-        <v>467.0044</v>
+        <v>448.7585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0481</v>
       </c>
       <c r="B5" s="0">
-        <v>493.0846</v>
+        <v>477.6954</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.057</v>
       </c>
       <c r="B6" s="0">
-        <v>509.5628</v>
+        <v>489.4855</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.0769</v>
       </c>
       <c r="B7" s="0">
-        <v>522.1583</v>
+        <v>506.6419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.0958</v>
       </c>
       <c r="B8" s="0">
-        <v>532.3784</v>
+        <v>521.6554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.1156</v>
       </c>
       <c r="B9" s="0">
-        <v>542.0212</v>
+        <v>531.3153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1335</v>
       </c>
       <c r="B10" s="0">
-        <v>550.4926</v>
+        <v>539.902</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1534</v>
       </c>
       <c r="B11" s="0">
-        <v>556.8833</v>
+        <v>548.4909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.1723</v>
       </c>
       <c r="B12" s="0">
-        <v>562.6137</v>
+        <v>554.9368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.1912</v>
       </c>
       <c r="B13" s="0">
-        <v>569.5753</v>
+        <v>562.4537</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.2448</v>
       </c>
       <c r="B14" s="0">
-        <v>574.3958</v>
+        <v>577.5045</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.2945</v>
       </c>
       <c r="B15" s="0">
-        <v>578.6332</v>
+        <v>587.1963</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.3581</v>
       </c>
       <c r="B16" s="0">
-        <v>583.4657</v>
+        <v>599.0448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.3959</v>
       </c>
       <c r="B17" s="0">
-        <v>587.0081</v>
+        <v>606.5819</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.4535</v>
       </c>
       <c r="B18" s="0">
-        <v>591.2093</v>
+        <v>611.9984</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5002</v>
       </c>
       <c r="B19" s="0">
-        <v>595.2505</v>
+        <v>619.5451</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5529</v>
       </c>
       <c r="B20" s="0">
-        <v>598.1837</v>
+        <v>624.9563</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.6046</v>
       </c>
       <c r="B21" s="0">
-        <v>601.7035</v>
+        <v>632.5083</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.6424</v>
       </c>
       <c r="B22" s="0">
-        <v>605.0403</v>
+        <v>634.6906</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.695</v>
       </c>
       <c r="B23" s="0">
-        <v>607.5999</v>
+        <v>639.0308</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.7378</v>
       </c>
       <c r="B24" s="0">
-        <v>610.9651</v>
+        <v>642.2894</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.7676</v>
       </c>
       <c r="B25" s="0">
-        <v>613.5362</v>
+        <v>645.5342</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.7934</v>
       </c>
       <c r="B26" s="0">
-        <v>616.1266</v>
+        <v>648.7748</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.8133</v>
       </c>
       <c r="B27" s="0">
-        <v>618.1485</v>
+        <v>648.796</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.8352</v>
       </c>
       <c r="B28" s="0">
-        <v>619.9867</v>
+        <v>649.8904</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.856</v>
       </c>
       <c r="B29" s="0">
-        <v>622.7432</v>
+        <v>652.0547</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.872</v>
       </c>
       <c r="B30" s="0">
-        <v>624.7832</v>
+        <v>653.1427</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.8849</v>
       </c>
       <c r="B31" s="0">
-        <v>627.3149</v>
+        <v>653.1565</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.8998</v>
       </c>
       <c r="B32" s="0">
-        <v>629.1582</v>
+        <v>654.2434</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.9117</v>
       </c>
       <c r="B33" s="0">
-        <v>630.9059</v>
+        <v>654.2562</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.9236</v>
       </c>
       <c r="B34" s="0">
-        <v>632.7413</v>
+        <v>655.3399</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.9356</v>
       </c>
       <c r="B35" s="0">
-        <v>634.4264</v>
+        <v>655.3527</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.9505</v>
       </c>
       <c r="B36" s="0">
-        <v>637.2165</v>
+        <v>655.3687</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.9584</v>
       </c>
       <c r="B37" s="0">
-        <v>638.9045</v>
+        <v>656.4481</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.9694</v>
       </c>
       <c r="B38" s="0">
-        <v>640.7302</v>
+        <v>657.5308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.9803</v>
       </c>
       <c r="B39" s="0">
-        <v>642.6908</v>
+        <v>658.6134</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.9892</v>
       </c>
       <c r="B40" s="0">
-        <v>643.1646</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>644.4946</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>646.4469</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>647.7169</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>648.8077</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>650.3449</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>651.5323</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>652.9627</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>654.8537</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>655.9981</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>657.105</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0085</v>
-      </c>
-      <c r="B51" s="0">
-        <v>384.4803</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0283</v>
-      </c>
-      <c r="B52" s="0">
-        <v>449.8295</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0471</v>
-      </c>
-      <c r="B53" s="0">
-        <v>480.9072</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>658.623</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -15359,7 +15023,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15380,397 +15044,301 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.988</v>
       </c>
       <c r="B3" s="0">
-        <v>24.383</v>
+        <v>44.9671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.9721</v>
       </c>
       <c r="B4" s="0">
-        <v>27.221</v>
+        <v>43.8791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9592</v>
       </c>
       <c r="B5" s="0">
-        <v>29.0932</v>
+        <v>42.7943</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.9473</v>
       </c>
       <c r="B6" s="0">
-        <v>30.2151</v>
+        <v>42.7815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.9324</v>
       </c>
       <c r="B7" s="0">
-        <v>31.0981</v>
+        <v>42.7656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.9184</v>
       </c>
       <c r="B8" s="0">
-        <v>31.949</v>
+        <v>41.6797</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.9025</v>
       </c>
       <c r="B9" s="0">
-        <v>32.5644</v>
+        <v>40.5917</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.8886</v>
       </c>
       <c r="B10" s="0">
-        <v>33.6458</v>
+        <v>41.6478</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.8717</v>
       </c>
       <c r="B11" s="0">
-        <v>34.8285</v>
+        <v>42.7006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.8558</v>
       </c>
       <c r="B12" s="0">
-        <v>37.1858</v>
+        <v>42.6836</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.8369</v>
       </c>
       <c r="B13" s="0">
-        <v>39.7877</v>
+        <v>42.6634</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.8141</v>
       </c>
       <c r="B14" s="0">
-        <v>39.2544</v>
+        <v>42.6389</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.7922</v>
       </c>
       <c r="B15" s="0">
-        <v>40.0454</v>
+        <v>42.6155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.7673</v>
       </c>
       <c r="B16" s="0">
-        <v>39.6271</v>
+        <v>42.5889</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.7395</v>
       </c>
       <c r="B17" s="0">
-        <v>39.4701</v>
+        <v>44.7009</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.6958</v>
       </c>
       <c r="B18" s="0">
-        <v>42.0767</v>
+        <v>43.5832</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.6411</v>
       </c>
       <c r="B19" s="0">
-        <v>41.0262</v>
+        <v>41.3827</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.6053</v>
       </c>
       <c r="B20" s="0">
-        <v>40.4967</v>
+        <v>41.3444</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.5526</v>
       </c>
       <c r="B21" s="0">
-        <v>40.5343</v>
+        <v>41.288</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.5526</v>
       </c>
       <c r="B22" s="0">
-        <v>40.5104</v>
+        <v>41.288</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.499</v>
       </c>
       <c r="B23" s="0">
-        <v>43.0909</v>
+        <v>41.2305</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.4532</v>
       </c>
       <c r="B24" s="0">
-        <v>42.4024</v>
+        <v>41.1815</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.3956</v>
       </c>
       <c r="B25" s="0">
-        <v>41.716</v>
+        <v>40.0488</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.3578</v>
       </c>
       <c r="B26" s="0">
-        <v>42.2578</v>
+        <v>41.0793</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.2922</v>
       </c>
       <c r="B27" s="0">
-        <v>41.809</v>
+        <v>41.009</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.2465</v>
       </c>
       <c r="B28" s="0">
-        <v>43.4159</v>
+        <v>42.031</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.1908</v>
       </c>
       <c r="B29" s="0">
-        <v>42.6683</v>
+        <v>38.7586</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.1729</v>
       </c>
       <c r="B30" s="0">
-        <v>42.196</v>
+        <v>37.6685</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.152</v>
       </c>
       <c r="B31" s="0">
-        <v>43.698</v>
+        <v>36.5751</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.1332</v>
       </c>
       <c r="B32" s="0">
-        <v>43.0216</v>
+        <v>36.5549</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.1153</v>
       </c>
       <c r="B33" s="0">
-        <v>42.5877</v>
+        <v>36.5358</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.1043</v>
       </c>
       <c r="B34" s="0">
-        <v>42.8717</v>
+        <v>37.595</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.0954</v>
       </c>
       <c r="B35" s="0">
-        <v>43.7158</v>
+        <v>35.4435</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.0775</v>
       </c>
       <c r="B36" s="0">
-        <v>43.4093</v>
+        <v>35.4244</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.0576</v>
       </c>
       <c r="B37" s="0">
-        <v>43.7601</v>
+        <v>35.4031</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.0467</v>
       </c>
       <c r="B38" s="0">
-        <v>44.2959</v>
+        <v>34.3204</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.0268</v>
       </c>
       <c r="B39" s="0">
-        <v>43.8063</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>44.1124</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>43.5585</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>42.9288</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>43.0078</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>42.8848</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>42.2759</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>41.904</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>41.5452</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>41.141</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>40.7255</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>40.2739</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>40.4153</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>32.1572</v>
+      </c>
+    </row>
+    <row r="40"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -15779,7 +15347,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15800,397 +15368,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0076</v>
       </c>
       <c r="B3" s="0">
-        <v>309.4556</v>
+        <v>279.5262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0264</v>
       </c>
       <c r="B4" s="0">
-        <v>342.8419</v>
+        <v>333.0939</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0463</v>
       </c>
       <c r="B5" s="0">
-        <v>364.1645</v>
+        <v>354.5342</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0562</v>
       </c>
       <c r="B6" s="0">
-        <v>379.6218</v>
+        <v>363.1124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.0761</v>
       </c>
       <c r="B7" s="0">
-        <v>389.7788</v>
+        <v>375.9851</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.0949</v>
       </c>
       <c r="B8" s="0">
-        <v>398.1834</v>
+        <v>385.6439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.1138</v>
       </c>
       <c r="B9" s="0">
-        <v>405.1161</v>
+        <v>396.3736</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1327</v>
       </c>
       <c r="B10" s="0">
-        <v>410.7551</v>
+        <v>402.8195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1526</v>
       </c>
       <c r="B11" s="0">
-        <v>416.773</v>
+        <v>409.2665</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.1734</v>
       </c>
       <c r="B12" s="0">
-        <v>421.0254</v>
+        <v>414.6436</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.1903</v>
       </c>
       <c r="B13" s="0">
-        <v>425.8488</v>
+        <v>420.0164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.244</v>
       </c>
       <c r="B14" s="0">
-        <v>430.1841</v>
+        <v>430.7834</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.2927</v>
       </c>
       <c r="B15" s="0">
-        <v>433.1438</v>
+        <v>439.4032</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.3563</v>
       </c>
       <c r="B16" s="0">
-        <v>436.3999</v>
+        <v>448.0389</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.3961</v>
       </c>
       <c r="B17" s="0">
-        <v>439.4846</v>
+        <v>453.4362</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.4527</v>
       </c>
       <c r="B18" s="0">
-        <v>442.5476</v>
+        <v>459.9226</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.4984</v>
       </c>
       <c r="B19" s="0">
-        <v>445.3698</v>
+        <v>464.2553</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5541</v>
       </c>
       <c r="B20" s="0">
-        <v>447.8458</v>
+        <v>469.6697</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.6058</v>
       </c>
       <c r="B21" s="0">
-        <v>450.8913</v>
+        <v>474.0089</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.6416</v>
       </c>
       <c r="B22" s="0">
-        <v>453.3383</v>
+        <v>476.1891</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.6952</v>
       </c>
       <c r="B23" s="0">
-        <v>455.2199</v>
+        <v>480.5304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.737</v>
       </c>
       <c r="B24" s="0">
-        <v>457.4544</v>
+        <v>482.717</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.7678</v>
       </c>
       <c r="B25" s="0">
-        <v>459.371</v>
+        <v>484.8919</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.7926</v>
       </c>
       <c r="B26" s="0">
-        <v>461.6627</v>
+        <v>485.9894</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.8135</v>
       </c>
       <c r="B27" s="0">
-        <v>463.685</v>
+        <v>487.0827</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.8354</v>
       </c>
       <c r="B28" s="0">
-        <v>465.218</v>
+        <v>488.1771</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.8533</v>
       </c>
       <c r="B29" s="0">
-        <v>467.668</v>
+        <v>489.2672</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.8712</v>
       </c>
       <c r="B30" s="0">
-        <v>469.6605</v>
+        <v>490.3573</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.8841</v>
       </c>
       <c r="B31" s="0">
-        <v>470.8186</v>
+        <v>490.3712</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.897</v>
       </c>
       <c r="B32" s="0">
-        <v>471.9721</v>
+        <v>491.456</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.9079</v>
       </c>
       <c r="B33" s="0">
-        <v>472.6545</v>
+        <v>491.4677</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.9079</v>
       </c>
       <c r="B34" s="0">
-        <v>474.4211</v>
+        <v>491.4677</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.9199</v>
       </c>
       <c r="B35" s="0">
-        <v>476.1761</v>
+        <v>493.6223</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.9338</v>
       </c>
       <c r="B36" s="0">
-        <v>478.3014</v>
+        <v>493.6372</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.9467</v>
       </c>
       <c r="B37" s="0">
-        <v>479.9279</v>
+        <v>494.722</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.9566</v>
       </c>
       <c r="B38" s="0">
-        <v>481.2343</v>
+        <v>494.7327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.9656</v>
       </c>
       <c r="B39" s="0">
-        <v>482.4043</v>
+        <v>494.7423</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.9745</v>
       </c>
       <c r="B40" s="0">
-        <v>483.562</v>
+        <v>496.8937</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.78</v>
+        <v>0.9875</v>
       </c>
       <c r="B41" s="0">
-        <v>484.9611</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>485.0711</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>486.4351</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>488.3228</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>489.406</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>490.4029</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>490.9993</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>491.8268</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>493.1343</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>494.144</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>496.3871</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>496.9076</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -16199,7 +15687,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16220,405 +15708,301 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.0277</v>
       </c>
       <c r="B3" s="0">
-        <v>111.964</v>
+        <v>86.7767</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.0466</v>
       </c>
       <c r="B4" s="0">
-        <v>156.039</v>
+        <v>134.9896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.0565</v>
       </c>
       <c r="B5" s="0">
-        <v>187.1458</v>
+        <v>151.0645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.0753</v>
       </c>
       <c r="B6" s="0">
-        <v>204.1424</v>
+        <v>178.9294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.0952</v>
       </c>
       <c r="B7" s="0">
-        <v>220.5886</v>
+        <v>201.4406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.1061</v>
       </c>
       <c r="B8" s="0">
-        <v>236.9791</v>
+        <v>210.0199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.115</v>
       </c>
       <c r="B9" s="0">
-        <v>250.2136</v>
+        <v>217.5261</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.1339</v>
       </c>
       <c r="B10" s="0">
-        <v>261.5815</v>
+        <v>232.5397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.1538</v>
       </c>
       <c r="B11" s="0">
-        <v>270.7418</v>
+        <v>245.4123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.1746</v>
       </c>
       <c r="B12" s="0">
-        <v>280.0325</v>
+        <v>258.2861</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.1905</v>
       </c>
       <c r="B13" s="0">
-        <v>288.2124</v>
+        <v>267.9417</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.2462</v>
       </c>
       <c r="B14" s="0">
-        <v>295.0899</v>
+        <v>291.5622</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.2939</v>
       </c>
       <c r="B15" s="0">
-        <v>303.0773</v>
+        <v>306.6065</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.3565</v>
       </c>
       <c r="B16" s="0">
-        <v>309.9725</v>
+        <v>327.0216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.3962</v>
       </c>
       <c r="B17" s="0">
-        <v>315.5964</v>
+        <v>337.7737</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.4528</v>
       </c>
       <c r="B18" s="0">
-        <v>321.5352</v>
+        <v>349.6148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.4996</v>
       </c>
       <c r="B19" s="0">
-        <v>326.7567</v>
+        <v>360.3744</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.5532</v>
       </c>
       <c r="B20" s="0">
-        <v>331.8664</v>
+        <v>368.9994</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.6049</v>
       </c>
       <c r="B21" s="0">
-        <v>336.9587</v>
+        <v>376.5514</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.6417</v>
       </c>
       <c r="B22" s="0">
-        <v>341.5764</v>
+        <v>383.0165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.6953</v>
       </c>
       <c r="B23" s="0">
-        <v>346.6504</v>
+        <v>390.5706</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.7391</v>
       </c>
       <c r="B24" s="0">
-        <v>350.9384</v>
+        <v>397.0432</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.7679</v>
       </c>
       <c r="B25" s="0">
-        <v>355.2909</v>
+        <v>400.2869</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.7927</v>
       </c>
       <c r="B26" s="0">
-        <v>359.6321</v>
+        <v>404.5973</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>0.8136</v>
       </c>
       <c r="B27" s="0">
-        <v>362.2928</v>
+        <v>405.6906</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.54</v>
+        <v>0.8365</v>
       </c>
       <c r="B28" s="0">
-        <v>366.3808</v>
+        <v>408.9279</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.56</v>
+        <v>0.8544</v>
       </c>
       <c r="B29" s="0">
-        <v>370.1061</v>
+        <v>411.089</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.58</v>
+        <v>0.8703</v>
       </c>
       <c r="B30" s="0">
-        <v>373.2744</v>
+        <v>413.2479</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6</v>
+        <v>0.8862</v>
       </c>
       <c r="B31" s="0">
-        <v>376.3097</v>
+        <v>415.4069</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.62</v>
+        <v>0.8981</v>
       </c>
       <c r="B32" s="0">
-        <v>379.507</v>
+        <v>415.4196</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.64</v>
+        <v>0.911</v>
       </c>
       <c r="B33" s="0">
-        <v>382.6789</v>
+        <v>417.5754</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.66</v>
+        <v>0.9219</v>
       </c>
       <c r="B34" s="0">
-        <v>385.0029</v>
+        <v>418.658</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.68</v>
+        <v>0.9339</v>
       </c>
       <c r="B35" s="0">
-        <v>388.4765</v>
+        <v>419.7418</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7</v>
+        <v>0.9488</v>
       </c>
       <c r="B36" s="0">
-        <v>391.4494</v>
+        <v>420.8287</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.72</v>
+        <v>0.9587</v>
       </c>
       <c r="B37" s="0">
-        <v>394.1995</v>
+        <v>424.0522</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.74</v>
+        <v>0.9726</v>
       </c>
       <c r="B38" s="0">
-        <v>397.223</v>
+        <v>424.0671</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.76</v>
+        <v>0.9856</v>
       </c>
       <c r="B39" s="0">
-        <v>399.0266</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>400.7504</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>406.8412</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>407.2547</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>405.1883</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>409.609</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>411.1716</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>412.7821</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>415.8439</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>418.091</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>420.1389</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9875</v>
-      </c>
-      <c r="B50" s="0">
-        <v>425.154</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9736</v>
-      </c>
-      <c r="B51" s="0">
-        <v>421.9262</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0287</v>
-      </c>
-      <c r="B52" s="0">
-        <v>86.7777</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>426.2228</v>
+      </c>
+    </row>
+    <row r="40"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -16627,7 +16011,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16648,421 +16032,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.14</v>
+        <v>0.0089</v>
       </c>
       <c r="B3" s="0">
-        <v>48.7174</v>
+        <v>33.209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.16</v>
+        <v>0.0278</v>
       </c>
       <c r="B4" s="0">
-        <v>48.9559</v>
+        <v>39.6549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.18</v>
+        <v>0.0457</v>
       </c>
       <c r="B5" s="0">
-        <v>48.8834</v>
+        <v>41.816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.2</v>
+        <v>0.0576</v>
       </c>
       <c r="B6" s="0">
-        <v>49.3343</v>
+        <v>42.8997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.22</v>
+        <v>0.0755</v>
       </c>
       <c r="B7" s="0">
-        <v>50.1585</v>
+        <v>45.0608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.24</v>
+        <v>0.0954</v>
       </c>
       <c r="B8" s="0">
-        <v>50.3012</v>
+        <v>45.0821</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.26</v>
+        <v>0.1053</v>
       </c>
       <c r="B9" s="0">
-        <v>50.7086</v>
+        <v>46.1637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.28</v>
+        <v>0.1153</v>
       </c>
       <c r="B10" s="0">
-        <v>51.4189</v>
+        <v>46.1743</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3</v>
+        <v>0.1341</v>
       </c>
       <c r="B11" s="0">
-        <v>51.9564</v>
+        <v>46.1945</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.32</v>
+        <v>0.153</v>
       </c>
       <c r="B12" s="0">
-        <v>52.6241</v>
+        <v>49.4276</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.34</v>
+        <v>0.1739</v>
       </c>
       <c r="B13" s="0">
-        <v>52.7357</v>
+        <v>50.5209</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.36</v>
+        <v>0.1908</v>
       </c>
       <c r="B14" s="0">
-        <v>52.4848</v>
+        <v>49.4681</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.38</v>
+        <v>0.2445</v>
       </c>
       <c r="B15" s="0">
-        <v>52.8755</v>
+        <v>51.6674</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4</v>
+        <v>0.2942</v>
       </c>
       <c r="B16" s="0">
-        <v>53.3651</v>
+        <v>51.7207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.42</v>
+        <v>0.3578</v>
       </c>
       <c r="B17" s="0">
-        <v>53.8167</v>
+        <v>53.9307</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.44</v>
+        <v>0.3975</v>
       </c>
       <c r="B18" s="0">
-        <v>54.091</v>
+        <v>55.0442</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.46</v>
+        <v>0.4532</v>
       </c>
       <c r="B19" s="0">
-        <v>54.5291</v>
+        <v>57.2457</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.48</v>
+        <v>0.4989</v>
       </c>
       <c r="B20" s="0">
-        <v>54.8952</v>
+        <v>55.1528</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5</v>
+        <v>0.5546</v>
       </c>
       <c r="B21" s="0">
-        <v>54.6246</v>
+        <v>56.2834</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.52</v>
+        <v>0.6063</v>
       </c>
       <c r="B22" s="0">
-        <v>54.7304</v>
+        <v>57.4097</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.54</v>
+        <v>0.6421</v>
       </c>
       <c r="B23" s="0">
-        <v>55.123</v>
+        <v>57.448</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.56</v>
+        <v>0.6948</v>
       </c>
       <c r="B24" s="0">
-        <v>55.0397</v>
+        <v>58.5754</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.58</v>
+        <v>0.7395</v>
       </c>
       <c r="B25" s="0">
-        <v>55.0015</v>
+        <v>58.6233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6</v>
+        <v>0.7673</v>
       </c>
       <c r="B26" s="0">
-        <v>55.4001</v>
+        <v>58.6531</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.62</v>
+        <v>0.7932</v>
       </c>
       <c r="B27" s="0">
-        <v>55.9019</v>
+        <v>59.7517</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.64</v>
+        <v>0.814</v>
       </c>
       <c r="B28" s="0">
-        <v>55.6898</v>
+        <v>59.7741</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.66</v>
+        <v>0.8359</v>
       </c>
       <c r="B29" s="0">
-        <v>56.1712</v>
+        <v>59.7975</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.68</v>
+        <v>0.8548</v>
       </c>
       <c r="B30" s="0">
-        <v>56.4202</v>
+        <v>60.8887</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7</v>
+        <v>0.8727</v>
       </c>
       <c r="B31" s="0">
-        <v>56.3564</v>
+        <v>60.9078</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.72</v>
+        <v>0.8856</v>
       </c>
       <c r="B32" s="0">
-        <v>56.8513</v>
+        <v>58.7798</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.74</v>
+        <v>0.8985</v>
       </c>
       <c r="B33" s="0">
-        <v>56.7072</v>
+        <v>60.9355</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.76</v>
+        <v>0.9115</v>
       </c>
       <c r="B34" s="0">
-        <v>56.4441</v>
+        <v>60.9493</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.78</v>
+        <v>0.9224</v>
       </c>
       <c r="B35" s="0">
-        <v>56.8157</v>
+        <v>58.8192</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8</v>
+        <v>0.9333</v>
       </c>
       <c r="B36" s="0">
-        <v>57.0234</v>
+        <v>59.9018</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.82</v>
+        <v>0.9423</v>
       </c>
       <c r="B37" s="0">
-        <v>57.1614</v>
+        <v>59.9114</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.84</v>
+        <v>0.9512</v>
       </c>
       <c r="B38" s="0">
-        <v>57.5033</v>
+        <v>60.9919</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.86</v>
+        <v>0.9622</v>
       </c>
       <c r="B39" s="0">
-        <v>57.7708</v>
+        <v>61.0036</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.88</v>
+        <v>0.9731</v>
       </c>
       <c r="B40" s="0">
-        <v>58.1943</v>
+        <v>61.0154</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9</v>
+        <v>0.989</v>
       </c>
       <c r="B41" s="0">
-        <v>58.2928</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B42" s="0">
-        <v>58.3434</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B43" s="0">
-        <v>58.6508</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B44" s="0">
-        <v>58.9311</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9771</v>
-      </c>
-      <c r="B45" s="0">
-        <v>57.8068</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.988</v>
-      </c>
-      <c r="B46" s="0">
-        <v>58.8894</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0079</v>
-      </c>
-      <c r="B47" s="0">
-        <v>33.2079</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0278</v>
-      </c>
-      <c r="B48" s="0">
-        <v>38.584</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0447</v>
-      </c>
-      <c r="B49" s="0">
-        <v>41.8149</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0556</v>
-      </c>
-      <c r="B50" s="0">
-        <v>42.8976</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0765</v>
-      </c>
-      <c r="B51" s="0">
-        <v>45.0618</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.1143</v>
-      </c>
-      <c r="B52" s="0">
-        <v>46.1732</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.1043</v>
-      </c>
-      <c r="B53" s="0">
-        <v>47.2335</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0954</v>
-      </c>
-      <c r="B54" s="0">
-        <v>46.153</v>
-      </c>
-    </row>
-    <row r="55"/>
+        <v>61.0324</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -17071,7 +16351,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17092,429 +16372,301 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.118</v>
+        <v>0.0598</v>
       </c>
       <c r="B3" s="0">
-        <v>217.9514</v>
+        <v>150.0607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.136</v>
+        <v>0.0787</v>
       </c>
       <c r="B4" s="0">
-        <v>231.0608</v>
+        <v>179.3779</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.154</v>
+        <v>0.0965</v>
       </c>
       <c r="B5" s="0">
-        <v>242.6089</v>
+        <v>199.8282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.172</v>
+        <v>0.1064</v>
       </c>
       <c r="B6" s="0">
-        <v>254.3975</v>
+        <v>209.3705</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.19</v>
+        <v>0.1174</v>
       </c>
       <c r="B7" s="0">
-        <v>264.1944</v>
+        <v>218.2299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.208</v>
+        <v>0.1342</v>
       </c>
       <c r="B8" s="0">
-        <v>272.7339</v>
+        <v>232.5418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.226</v>
+        <v>0.1531</v>
       </c>
       <c r="B9" s="0">
-        <v>280.7712</v>
+        <v>245.488</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.244</v>
+        <v>0.1729</v>
       </c>
       <c r="B10" s="0">
-        <v>288.1175</v>
+        <v>257.0691</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.262</v>
+        <v>0.1907</v>
       </c>
       <c r="B11" s="0">
-        <v>294.8181</v>
+        <v>266.6054</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.28</v>
+        <v>0.2463</v>
       </c>
       <c r="B12" s="0">
-        <v>301.2781</v>
+        <v>289.7557</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.298</v>
+        <v>0.2939</v>
       </c>
       <c r="B13" s="0">
-        <v>307.5296</v>
+        <v>307.4549</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.316</v>
+        <v>0.3583</v>
       </c>
       <c r="B14" s="0">
-        <v>313.404</v>
+        <v>326.5057</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.334</v>
+        <v>0.396</v>
       </c>
       <c r="B15" s="0">
-        <v>318.798</v>
+        <v>336.0269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.352</v>
+        <v>0.4536</v>
       </c>
       <c r="B16" s="0">
-        <v>323.7002</v>
+        <v>348.9437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.37</v>
+        <v>0.4992</v>
       </c>
       <c r="B17" s="0">
-        <v>328.3274</v>
+        <v>359.1411</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.388</v>
+        <v>0.5537</v>
       </c>
       <c r="B18" s="0">
-        <v>332.9184</v>
+        <v>367.2853</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.406</v>
+        <v>0.6043</v>
       </c>
       <c r="B19" s="0">
-        <v>337.4561</v>
+        <v>376.7967</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.424</v>
+        <v>0.642</v>
       </c>
       <c r="B20" s="0">
-        <v>341.6556</v>
+        <v>382.9073</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.442</v>
+        <v>0.6965</v>
       </c>
       <c r="B21" s="0">
-        <v>345.5597</v>
+        <v>389.6873</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.7402</v>
       </c>
       <c r="B22" s="0">
-        <v>349.2283</v>
+        <v>395.1112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.478</v>
+        <v>0.7669</v>
       </c>
       <c r="B23" s="0">
-        <v>352.6769</v>
+        <v>399.1837</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.496</v>
+        <v>0.7927</v>
       </c>
       <c r="B24" s="0">
-        <v>356.1337</v>
+        <v>401.8927</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.514</v>
+        <v>0.8126</v>
       </c>
       <c r="B25" s="0">
-        <v>359.7479</v>
+        <v>403.924</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.532</v>
+        <v>0.8354</v>
       </c>
       <c r="B26" s="0">
-        <v>363.2076</v>
+        <v>407.3174</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.55</v>
+        <v>0.8542</v>
       </c>
       <c r="B27" s="0">
-        <v>366.4557</v>
+        <v>408.6674</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.568</v>
+        <v>0.874</v>
       </c>
       <c r="B28" s="0">
-        <v>369.5915</v>
+        <v>411.3808</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.586</v>
+        <v>0.8869</v>
       </c>
       <c r="B29" s="0">
-        <v>372.5565</v>
+        <v>412.0532</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.604</v>
+        <v>0.9018</v>
       </c>
       <c r="B30" s="0">
-        <v>375.4154</v>
+        <v>414.0883</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.622</v>
+        <v>0.9127</v>
       </c>
       <c r="B31" s="0">
-        <v>378.2272</v>
+        <v>416.1264</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.9217</v>
       </c>
       <c r="B32" s="0">
-        <v>380.921</v>
+        <v>416.8018</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.658</v>
+        <v>0.9286</v>
       </c>
       <c r="B33" s="0">
-        <v>383.527</v>
+        <v>416.7965</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.676</v>
+        <v>0.9405</v>
       </c>
       <c r="B34" s="0">
-        <v>386.1357</v>
+        <v>418.1518</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.694</v>
+        <v>0.9524</v>
       </c>
       <c r="B35" s="0">
-        <v>388.802</v>
+        <v>419.507</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.712</v>
+        <v>0.9643</v>
       </c>
       <c r="B36" s="0">
-        <v>391.3039</v>
+        <v>420.1801</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.73</v>
+        <v>0.9742</v>
       </c>
       <c r="B37" s="0">
-        <v>393.5221</v>
+        <v>421.5368</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.748</v>
+        <v>0.9841</v>
       </c>
       <c r="B38" s="0">
-        <v>395.6301</v>
+        <v>422.2114</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.766</v>
+        <v>0.9921</v>
       </c>
       <c r="B39" s="0">
-        <v>397.7198</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.784</v>
-      </c>
-      <c r="B40" s="0">
-        <v>399.8845</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.802</v>
-      </c>
-      <c r="B41" s="0">
-        <v>402.2688</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>404.5383</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.838</v>
-      </c>
-      <c r="B43" s="0">
-        <v>406.5379</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.856</v>
-      </c>
-      <c r="B44" s="0">
-        <v>408.521</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.874</v>
-      </c>
-      <c r="B45" s="0">
-        <v>410.5722</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.892</v>
-      </c>
-      <c r="B46" s="0">
-        <v>412.579</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.91</v>
-      </c>
-      <c r="B47" s="0">
-        <v>414.5463</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.928</v>
-      </c>
-      <c r="B48" s="0">
-        <v>416.8433</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.946</v>
-      </c>
-      <c r="B49" s="0">
-        <v>419.3319</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9613</v>
-      </c>
-      <c r="B50" s="0">
-        <v>420.8645</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9802</v>
-      </c>
-      <c r="B51" s="0">
-        <v>423.5787</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.1064</v>
-      </c>
-      <c r="B52" s="0">
-        <v>209.3705</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0955</v>
-      </c>
-      <c r="B53" s="0">
-        <v>199.1469</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0787</v>
-      </c>
-      <c r="B54" s="0">
-        <v>178.0137</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0598</v>
-      </c>
-      <c r="B55" s="0">
-        <v>150.0607</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>423.5697</v>
+      </c>
+    </row>
+    <row r="40"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -17523,7 +16675,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17544,429 +16696,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.118</v>
+        <v>0.0767</v>
       </c>
       <c r="B3" s="0">
-        <v>44.5709</v>
+        <v>30.6755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.136</v>
+        <v>0.0569</v>
       </c>
       <c r="B4" s="0">
-        <v>48.0417</v>
+        <v>23.1871</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.154</v>
+        <v>0.0955</v>
       </c>
       <c r="B5" s="0">
-        <v>51.114</v>
+        <v>37.4825</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.172</v>
+        <v>0.1045</v>
       </c>
       <c r="B6" s="0">
-        <v>54.1234</v>
+        <v>40.2042</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.19</v>
+        <v>0.1154</v>
       </c>
       <c r="B7" s="0">
-        <v>56.5649</v>
+        <v>42.9245</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.208</v>
+        <v>0.1352</v>
       </c>
       <c r="B8" s="0">
-        <v>58.9949</v>
+        <v>47.0022</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.226</v>
+        <v>0.155</v>
       </c>
       <c r="B9" s="0">
-        <v>61.5337</v>
+        <v>50.3978</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.244</v>
+        <v>0.1739</v>
       </c>
       <c r="B10" s="0">
-        <v>63.8484</v>
+        <v>53.7942</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.262</v>
+        <v>0.1937</v>
       </c>
       <c r="B11" s="0">
-        <v>65.7069</v>
+        <v>56.5077</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.28</v>
+        <v>0.2473</v>
       </c>
       <c r="B12" s="0">
-        <v>67.1767</v>
+        <v>63.2883</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.298</v>
+        <v>0.2949</v>
       </c>
       <c r="B13" s="0">
-        <v>68.5646</v>
+        <v>68.0272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.316</v>
+        <v>0.3593</v>
       </c>
       <c r="B14" s="0">
-        <v>70.031</v>
+        <v>74.1175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.334</v>
+        <v>0.397</v>
       </c>
       <c r="B15" s="0">
-        <v>71.7584</v>
+        <v>76.8174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.352</v>
+        <v>0.4536</v>
       </c>
       <c r="B16" s="0">
-        <v>73.5262</v>
+        <v>80.8673</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.37</v>
+        <v>0.5002</v>
       </c>
       <c r="B17" s="0">
-        <v>75.1861</v>
+        <v>83.5605</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.388</v>
+        <v>0.5547</v>
       </c>
       <c r="B18" s="0">
-        <v>76.7316</v>
+        <v>86.2477</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.406</v>
+        <v>0.6063</v>
       </c>
       <c r="B19" s="0">
-        <v>78.0309</v>
+        <v>88.9371</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.424</v>
+        <v>0.641</v>
       </c>
       <c r="B20" s="0">
-        <v>79.0602</v>
+        <v>90.2751</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.442</v>
+        <v>0.6965</v>
       </c>
       <c r="B21" s="0">
-        <v>79.9879</v>
+        <v>92.2794</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.7402</v>
       </c>
       <c r="B22" s="0">
-        <v>80.9426</v>
+        <v>94.2927</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.478</v>
+        <v>0.7679</v>
       </c>
       <c r="B23" s="0">
-        <v>81.9489</v>
+        <v>94.2716</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.496</v>
+        <v>0.7927</v>
       </c>
       <c r="B24" s="0">
-        <v>82.9404</v>
+        <v>94.935</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.514</v>
+        <v>0.8136</v>
       </c>
       <c r="B25" s="0">
-        <v>83.8897</v>
+        <v>95.6013</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.532</v>
+        <v>0.8374</v>
       </c>
       <c r="B26" s="0">
-        <v>84.8784</v>
+        <v>96.9475</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.55</v>
+        <v>0.8542</v>
       </c>
       <c r="B27" s="0">
-        <v>85.9336</v>
+        <v>98.299</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.568</v>
+        <v>0.8711</v>
       </c>
       <c r="B28" s="0">
-        <v>86.7578</v>
+        <v>98.9684</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.586</v>
+        <v>0.884</v>
       </c>
       <c r="B29" s="0">
-        <v>87.2439</v>
+        <v>98.9586</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.604</v>
+        <v>0.8988</v>
       </c>
       <c r="B30" s="0">
-        <v>87.8707</v>
+        <v>99.6294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.622</v>
+        <v>0.9107</v>
       </c>
       <c r="B31" s="0">
-        <v>88.8885</v>
+        <v>99.6204</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.9207</v>
       </c>
       <c r="B32" s="0">
-        <v>90.1175</v>
+        <v>99.6129</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.658</v>
+        <v>0.9326</v>
       </c>
       <c r="B33" s="0">
-        <v>91.3656</v>
+        <v>100.286</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.676</v>
+        <v>0.9425</v>
       </c>
       <c r="B34" s="0">
-        <v>92.287</v>
+        <v>100.2785</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.694</v>
+        <v>0.9554</v>
       </c>
       <c r="B35" s="0">
-        <v>92.8268</v>
+        <v>101.633</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.712</v>
+        <v>0.9683</v>
       </c>
       <c r="B36" s="0">
-        <v>93.3886</v>
+        <v>100.9411</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.73</v>
+        <v>0.9762</v>
       </c>
       <c r="B37" s="0">
-        <v>94.1685</v>
+        <v>100.9351</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.748</v>
+        <v>0.9881</v>
       </c>
       <c r="B38" s="0">
-        <v>94.8141</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.766</v>
-      </c>
-      <c r="B39" s="0">
-        <v>95.1401</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.784</v>
-      </c>
-      <c r="B40" s="0">
-        <v>95.4921</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.802</v>
-      </c>
-      <c r="B41" s="0">
-        <v>96.3072</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>97.5851</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.838</v>
-      </c>
-      <c r="B43" s="0">
-        <v>99.0456</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.856</v>
-      </c>
-      <c r="B44" s="0">
-        <v>100.1848</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.874</v>
-      </c>
-      <c r="B45" s="0">
-        <v>100.6347</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.892</v>
-      </c>
-      <c r="B46" s="0">
-        <v>100.6473</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.91</v>
-      </c>
-      <c r="B47" s="0">
-        <v>100.5188</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.928</v>
-      </c>
-      <c r="B48" s="0">
-        <v>100.4507</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.946</v>
-      </c>
-      <c r="B49" s="0">
-        <v>100.5521</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.964</v>
-      </c>
-      <c r="B50" s="0">
-        <v>100.7823</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.1045</v>
-      </c>
-      <c r="B51" s="0">
-        <v>39.5221</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0767</v>
-      </c>
-      <c r="B52" s="0">
-        <v>30.6755</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0569</v>
-      </c>
-      <c r="B53" s="0">
-        <v>23.1871</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0936</v>
-      </c>
-      <c r="B54" s="0">
-        <v>36.1197</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9792</v>
-      </c>
-      <c r="B55" s="0">
-        <v>101.6149</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>101.6082</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -17975,7 +16991,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17996,421 +17012,309 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.118</v>
+        <v>0.0588</v>
       </c>
       <c r="B3" s="0">
-        <v>103.4408</v>
+        <v>81.8486</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.136</v>
+        <v>0.0777</v>
       </c>
       <c r="B4" s="0">
-        <v>107.639</v>
+        <v>92.0663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.154</v>
+        <v>0.0965</v>
       </c>
       <c r="B5" s="0">
-        <v>111.5475</v>
+        <v>97.509</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.172</v>
+        <v>0.1074</v>
       </c>
       <c r="B6" s="0">
-        <v>115.3637</v>
+        <v>100.9114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.19</v>
+        <v>0.1154</v>
       </c>
       <c r="B7" s="0">
-        <v>118.1516</v>
+        <v>103.6339</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.208</v>
+        <v>0.1342</v>
       </c>
       <c r="B8" s="0">
-        <v>120.2066</v>
+        <v>107.0302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.226</v>
+        <v>0.155</v>
       </c>
       <c r="B9" s="0">
-        <v>122.028</v>
+        <v>111.1072</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.244</v>
+        <v>0.1739</v>
       </c>
       <c r="B10" s="0">
-        <v>124.0082</v>
+        <v>115.1857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.262</v>
+        <v>0.1937</v>
       </c>
       <c r="B11" s="0">
-        <v>126.2155</v>
+        <v>118.5813</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.28</v>
+        <v>0.2463</v>
       </c>
       <c r="B12" s="0">
-        <v>128.2961</v>
+        <v>126.0449</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.298</v>
+        <v>0.2939</v>
       </c>
       <c r="B13" s="0">
-        <v>130.0734</v>
+        <v>130.7837</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.316</v>
+        <v>0.3583</v>
       </c>
       <c r="B14" s="0">
-        <v>131.9033</v>
+        <v>136.874</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.334</v>
+        <v>0.396</v>
       </c>
       <c r="B15" s="0">
-        <v>133.9466</v>
+        <v>139.574</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.352</v>
+        <v>0.4545</v>
       </c>
       <c r="B16" s="0">
-        <v>135.8462</v>
+        <v>143.6224</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.37</v>
+        <v>0.5012</v>
       </c>
       <c r="B17" s="0">
-        <v>137.365</v>
+        <v>144.9513</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.388</v>
+        <v>0.5537</v>
       </c>
       <c r="B18" s="0">
-        <v>138.726</v>
+        <v>149.0042</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.406</v>
+        <v>0.6073</v>
       </c>
       <c r="B19" s="0">
-        <v>140.1398</v>
+        <v>151.6922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.424</v>
+        <v>0.643</v>
       </c>
       <c r="B20" s="0">
-        <v>141.5411</v>
+        <v>153.0294</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.442</v>
+        <v>0.6955</v>
       </c>
       <c r="B21" s="0">
-        <v>142.8096</v>
+        <v>155.718</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.7402</v>
       </c>
       <c r="B22" s="0">
-        <v>143.6953</v>
+        <v>157.0485</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.478</v>
+        <v>0.7679</v>
       </c>
       <c r="B23" s="0">
-        <v>144.2563</v>
+        <v>158.3917</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.496</v>
+        <v>0.7917</v>
       </c>
       <c r="B24" s="0">
-        <v>145.0814</v>
+        <v>159.7379</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.514</v>
+        <v>0.8126</v>
       </c>
       <c r="B25" s="0">
-        <v>146.4311</v>
+        <v>159.7221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.532</v>
+        <v>0.8364</v>
       </c>
       <c r="B26" s="0">
-        <v>147.6936</v>
+        <v>160.3862</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.55</v>
+        <v>0.8562</v>
       </c>
       <c r="B27" s="0">
-        <v>148.4591</v>
+        <v>162.4176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.568</v>
+        <v>0.8731</v>
       </c>
       <c r="B28" s="0">
-        <v>149.0082</v>
+        <v>162.4048</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.586</v>
+        <v>0.8869</v>
       </c>
       <c r="B29" s="0">
-        <v>149.6323</v>
+        <v>163.7585</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.604</v>
+        <v>0.8998</v>
       </c>
       <c r="B30" s="0">
-        <v>150.4482</v>
+        <v>163.0666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.622</v>
+        <v>0.9127</v>
       </c>
       <c r="B31" s="0">
-        <v>151.5109</v>
+        <v>164.4211</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.9217</v>
       </c>
       <c r="B32" s="0">
-        <v>152.6248</v>
+        <v>163.7322</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.658</v>
+        <v>0.9296</v>
       </c>
       <c r="B33" s="0">
-        <v>153.6581</v>
+        <v>163.0441</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.676</v>
+        <v>0.9336</v>
       </c>
       <c r="B34" s="0">
-        <v>154.664</v>
+        <v>163.0411</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.694</v>
+        <v>0.9435</v>
       </c>
       <c r="B35" s="0">
-        <v>155.631</v>
+        <v>163.7157</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.712</v>
+        <v>0.9544</v>
       </c>
       <c r="B36" s="0">
-        <v>156.3468</v>
+        <v>164.3895</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.73</v>
+        <v>0.9613</v>
       </c>
       <c r="B37" s="0">
-        <v>156.756</v>
+        <v>164.3843</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.748</v>
+        <v>0.9683</v>
       </c>
       <c r="B38" s="0">
-        <v>157.1706</v>
+        <v>164.379</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.766</v>
+        <v>0.9821</v>
       </c>
       <c r="B39" s="0">
-        <v>157.9037</v>
+        <v>164.3685</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.784</v>
+        <v>0.9891</v>
       </c>
       <c r="B40" s="0">
-        <v>158.831</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.802</v>
-      </c>
-      <c r="B41" s="0">
-        <v>159.7566</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>160.5078</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.838</v>
-      </c>
-      <c r="B43" s="0">
-        <v>161.044</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.856</v>
-      </c>
-      <c r="B44" s="0">
-        <v>161.6975</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.874</v>
-      </c>
-      <c r="B45" s="0">
-        <v>162.6311</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.892</v>
-      </c>
-      <c r="B46" s="0">
-        <v>163.6174</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.91</v>
-      </c>
-      <c r="B47" s="0">
-        <v>164.4633</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.928</v>
-      </c>
-      <c r="B48" s="0">
-        <v>165.1749</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.946</v>
-      </c>
-      <c r="B49" s="0">
-        <v>165.7947</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.964</v>
-      </c>
-      <c r="B50" s="0">
-        <v>166.4001</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9851</v>
-      </c>
-      <c r="B51" s="0">
-        <v>165.7305</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0975</v>
-      </c>
-      <c r="B52" s="0">
-        <v>98.1904</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0777</v>
-      </c>
-      <c r="B53" s="0">
-        <v>90.0199</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0588</v>
-      </c>
-      <c r="B54" s="0">
-        <v>81.8486</v>
-      </c>
-    </row>
-    <row r="55"/>
+        <v>165.0453</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -18419,7 +17323,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18440,413 +17344,333 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.0099</v>
       </c>
       <c r="B3" s="0">
-        <v>468.3664</v>
+        <v>324.2667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.0278</v>
       </c>
       <c r="B4" s="0">
-        <v>486.3993</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.0457</v>
       </c>
       <c r="B5" s="0">
-        <v>497.8926</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.0556</v>
       </c>
       <c r="B6" s="0">
-        <v>508.4887</v>
+        <v>444.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.0765</v>
       </c>
       <c r="B7" s="0">
-        <v>517.8037</v>
+        <v>465.0667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.0963</v>
       </c>
       <c r="B8" s="0">
-        <v>524.8496</v>
+        <v>482.1333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.1063</v>
       </c>
       <c r="B9" s="0">
-        <v>530.5775</v>
+        <v>488.5333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.1152</v>
       </c>
       <c r="B10" s="0">
-        <v>535.9971</v>
+        <v>492.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.1341</v>
       </c>
       <c r="B11" s="0">
-        <v>541.3854</v>
+        <v>502.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.1549</v>
       </c>
       <c r="B12" s="0">
-        <v>546.8803</v>
+        <v>513.0667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.1728</v>
       </c>
       <c r="B13" s="0">
-        <v>552.1792</v>
+        <v>521.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.1907</v>
       </c>
       <c r="B14" s="0">
-        <v>557.1657</v>
+        <v>526.9333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.2453</v>
       </c>
       <c r="B15" s="0">
-        <v>561.8456</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.2929</v>
       </c>
       <c r="B16" s="0">
-        <v>566.1734</v>
+        <v>555.7333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.3565</v>
       </c>
       <c r="B17" s="0">
-        <v>569.9633</v>
+        <v>570.6667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.3952</v>
       </c>
       <c r="B18" s="0">
-        <v>573.1951</v>
+        <v>577.0667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.4528</v>
       </c>
       <c r="B19" s="0">
-        <v>576.2795</v>
+        <v>586.6667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.4985</v>
       </c>
       <c r="B20" s="0">
-        <v>579.5152</v>
+        <v>593.0667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.5521</v>
       </c>
       <c r="B21" s="0">
-        <v>582.7144</v>
+        <v>600.5333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.6058</v>
       </c>
       <c r="B22" s="0">
-        <v>585.8297</v>
+        <v>605.8667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.6405</v>
       </c>
       <c r="B23" s="0">
-        <v>588.9623</v>
+        <v>609.0667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.6941</v>
       </c>
       <c r="B24" s="0">
-        <v>591.9828</v>
+        <v>615.4667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.7378</v>
       </c>
       <c r="B25" s="0">
-        <v>594.7156</v>
+        <v>618.6667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.7666</v>
       </c>
       <c r="B26" s="0">
-        <v>597.0948</v>
+        <v>620.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.7925</v>
       </c>
       <c r="B27" s="0">
-        <v>599.172</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.8133</v>
       </c>
       <c r="B28" s="0">
-        <v>601.2232</v>
+        <v>625.0667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6</v>
+        <v>0.8352</v>
       </c>
       <c r="B29" s="0">
-        <v>603.5622</v>
+        <v>628.2667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.62</v>
+        <v>0.854</v>
       </c>
       <c r="B30" s="0">
-        <v>606.2471</v>
+        <v>629.3333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.64</v>
+        <v>0.8729</v>
       </c>
       <c r="B31" s="0">
-        <v>608.7371</v>
+        <v>631.4667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.66</v>
+        <v>0.8858</v>
       </c>
       <c r="B32" s="0">
-        <v>610.7236</v>
+        <v>632.5333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.68</v>
+        <v>0.8977</v>
       </c>
       <c r="B33" s="0">
-        <v>612.7191</v>
+        <v>632.5333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7</v>
+        <v>0.9116</v>
       </c>
       <c r="B34" s="0">
-        <v>615.23</v>
+        <v>633.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.72</v>
+        <v>0.9196</v>
       </c>
       <c r="B35" s="0">
-        <v>617.9351</v>
+        <v>633.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.74</v>
+        <v>0.9285</v>
       </c>
       <c r="B36" s="0">
-        <v>620.2144</v>
+        <v>634.6667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.76</v>
+        <v>0.9335</v>
       </c>
       <c r="B37" s="0">
-        <v>621.9023</v>
+        <v>634.6667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.78</v>
+        <v>0.9414</v>
       </c>
       <c r="B38" s="0">
-        <v>622.9268</v>
+        <v>634.6667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.8</v>
+        <v>0.9513</v>
       </c>
       <c r="B39" s="0">
-        <v>623.8141</v>
+        <v>634.6667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.82</v>
+        <v>0.9633</v>
       </c>
       <c r="B40" s="0">
-        <v>625.2637</v>
+        <v>636.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.84</v>
+        <v>0.9702</v>
       </c>
       <c r="B41" s="0">
-        <v>627.1695</v>
+        <v>636.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.86</v>
+        <v>0.9791</v>
       </c>
       <c r="B42" s="0">
-        <v>629.2099</v>
+        <v>637.8667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.88</v>
+        <v>0.9881</v>
       </c>
       <c r="B43" s="0">
-        <v>631.1718</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>632.9616</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>634.8516</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>636.9365</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9593</v>
-      </c>
-      <c r="B47" s="0">
-        <v>637.8667</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9801</v>
-      </c>
-      <c r="B48" s="0">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0586</v>
-      </c>
-      <c r="B49" s="0">
-        <v>445.8667</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0437</v>
-      </c>
-      <c r="B50" s="0">
-        <v>430.9333</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0318</v>
-      </c>
-      <c r="B51" s="0">
-        <v>401.0667</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0199</v>
-      </c>
-      <c r="B52" s="0">
-        <v>364.8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0099</v>
-      </c>
-      <c r="B53" s="0">
-        <v>324.2667</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>638.9333</v>
+      </c>
+    </row>
+    <row r="44"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -18855,7 +17679,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18876,413 +17700,309 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.0089</v>
       </c>
       <c r="B3" s="0">
-        <v>263.569</v>
+        <v>125.8667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.0278</v>
       </c>
       <c r="B4" s="0">
-        <v>280.429</v>
+        <v>199.4667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.0477</v>
       </c>
       <c r="B5" s="0">
-        <v>291.3916</v>
+        <v>232.5333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.0556</v>
       </c>
       <c r="B6" s="0">
-        <v>301.3191</v>
+        <v>244.2667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.0755</v>
       </c>
       <c r="B7" s="0">
-        <v>309.9777</v>
+        <v>262.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.0943</v>
       </c>
       <c r="B8" s="0">
-        <v>317.101</v>
+        <v>276.2667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.1053</v>
       </c>
       <c r="B9" s="0">
-        <v>324.0438</v>
+        <v>282.6667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.1152</v>
       </c>
       <c r="B10" s="0">
-        <v>331.1281</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.1351</v>
       </c>
       <c r="B11" s="0">
-        <v>337.7547</v>
+        <v>300.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.1529</v>
       </c>
       <c r="B12" s="0">
-        <v>343.2934</v>
+        <v>310.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.1738</v>
       </c>
       <c r="B13" s="0">
-        <v>348.0979</v>
+        <v>316.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.1927</v>
       </c>
       <c r="B14" s="0">
-        <v>353.3908</v>
+        <v>324.2667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.2463</v>
       </c>
       <c r="B15" s="0">
-        <v>358.7556</v>
+        <v>339.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.2949</v>
       </c>
       <c r="B16" s="0">
-        <v>363.6352</v>
+        <v>350.9333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.3585</v>
       </c>
       <c r="B17" s="0">
-        <v>367.3235</v>
+        <v>363.7333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.3952</v>
       </c>
       <c r="B18" s="0">
-        <v>370.0511</v>
+        <v>370.1333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.4538</v>
       </c>
       <c r="B19" s="0">
-        <v>372.6778</v>
+        <v>379.7333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.4995</v>
       </c>
       <c r="B20" s="0">
-        <v>375.669</v>
+        <v>386.1333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.5521</v>
       </c>
       <c r="B21" s="0">
-        <v>378.246</v>
+        <v>392.5333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.6058</v>
       </c>
       <c r="B22" s="0">
-        <v>379.983</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.6415</v>
       </c>
       <c r="B23" s="0">
-        <v>381.6544</v>
+        <v>403.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.6961</v>
       </c>
       <c r="B24" s="0">
-        <v>383.8902</v>
+        <v>408.5333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.7378</v>
       </c>
       <c r="B25" s="0">
-        <v>386.7374</v>
+        <v>410.6667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.7656</v>
       </c>
       <c r="B26" s="0">
-        <v>390.4238</v>
+        <v>412.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.7915</v>
       </c>
       <c r="B27" s="0">
-        <v>393.9001</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.8133</v>
       </c>
       <c r="B28" s="0">
-        <v>396.4453</v>
+        <v>417.0667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6</v>
+        <v>0.8361</v>
       </c>
       <c r="B29" s="0">
-        <v>398.7164</v>
+        <v>420.2667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.62</v>
+        <v>0.855</v>
       </c>
       <c r="B30" s="0">
-        <v>400.9356</v>
+        <v>421.3333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.64</v>
+        <v>0.8699</v>
       </c>
       <c r="B31" s="0">
-        <v>403.0165</v>
+        <v>422.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.66</v>
+        <v>0.8838</v>
       </c>
       <c r="B32" s="0">
-        <v>405.045</v>
+        <v>424.5333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.68</v>
+        <v>0.8967</v>
       </c>
       <c r="B33" s="0">
-        <v>406.797</v>
+        <v>424.5333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7</v>
+        <v>0.9076</v>
       </c>
       <c r="B34" s="0">
-        <v>408.3795</v>
+        <v>424.5333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.72</v>
+        <v>0.9196</v>
       </c>
       <c r="B35" s="0">
-        <v>410.6216</v>
+        <v>425.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.74</v>
+        <v>0.9345</v>
       </c>
       <c r="B36" s="0">
-        <v>413.5826</v>
+        <v>426.6667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.76</v>
+        <v>0.9464</v>
       </c>
       <c r="B37" s="0">
-        <v>416.4928</v>
+        <v>428.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.78</v>
+        <v>0.9603</v>
       </c>
       <c r="B38" s="0">
-        <v>418.5522</v>
+        <v>428.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.8</v>
+        <v>0.9752</v>
       </c>
       <c r="B39" s="0">
-        <v>419.7211</v>
+        <v>429.8667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.82</v>
+        <v>0.9871</v>
       </c>
       <c r="B40" s="0">
-        <v>420.8288</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B41" s="0">
-        <v>422.283</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>424.249</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>425.8202</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>426.3003</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>426.6895</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>427.9095</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9583</v>
-      </c>
-      <c r="B47" s="0">
-        <v>427.7333</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9851</v>
-      </c>
-      <c r="B48" s="0">
         <v>429.8667</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0576</v>
-      </c>
-      <c r="B49" s="0">
-        <v>243.2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0467</v>
-      </c>
-      <c r="B50" s="0">
-        <v>231.4667</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0308</v>
-      </c>
-      <c r="B51" s="0">
-        <v>199.4667</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0089</v>
-      </c>
-      <c r="B52" s="0">
-        <v>125.8667</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0179</v>
-      </c>
-      <c r="B53" s="0">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54"/>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -19291,7 +18011,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19312,413 +18032,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0089</v>
       </c>
       <c r="B3" s="0">
-        <v>40.2781</v>
+        <v>13.8667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.08</v>
+        <v>0.0278</v>
       </c>
       <c r="B4" s="0">
-        <v>96.7547</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1</v>
+        <v>0.0457</v>
       </c>
       <c r="B5" s="0">
-        <v>106.793</v>
+        <v>75.7333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12</v>
+        <v>0.0566</v>
       </c>
       <c r="B6" s="0">
-        <v>112.9732</v>
+        <v>84.2667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.14</v>
+        <v>0.0755</v>
       </c>
       <c r="B7" s="0">
-        <v>118.6136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16</v>
+        <v>0.0953</v>
       </c>
       <c r="B8" s="0">
-        <v>124.0644</v>
+        <v>104.5333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.18</v>
+        <v>0.1063</v>
       </c>
       <c r="B9" s="0">
-        <v>129.2164</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2</v>
+        <v>0.1142</v>
       </c>
       <c r="B10" s="0">
-        <v>133.9282</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.22</v>
+        <v>0.1341</v>
       </c>
       <c r="B11" s="0">
-        <v>137.885</v>
+        <v>117.3333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.24</v>
+        <v>0.1539</v>
       </c>
       <c r="B12" s="0">
-        <v>141.2083</v>
+        <v>122.6667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.26</v>
+        <v>0.1738</v>
       </c>
       <c r="B13" s="0">
-        <v>144.0475</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.28</v>
+        <v>0.1917</v>
       </c>
       <c r="B14" s="0">
-        <v>146.9589</v>
+        <v>133.3333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3</v>
+        <v>0.2453</v>
       </c>
       <c r="B15" s="0">
-        <v>150.3656</v>
+        <v>141.8667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.32</v>
+        <v>0.2939</v>
       </c>
       <c r="B16" s="0">
-        <v>153.6516</v>
+        <v>149.3333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.34</v>
+        <v>0.3575</v>
       </c>
       <c r="B17" s="0">
-        <v>156.2335</v>
+        <v>156.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.36</v>
+        <v>0.3952</v>
       </c>
       <c r="B18" s="0">
-        <v>158.1546</v>
+        <v>162.1333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.38</v>
+        <v>0.4528</v>
       </c>
       <c r="B19" s="0">
-        <v>159.8697</v>
+        <v>166.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4</v>
+        <v>0.4995</v>
       </c>
       <c r="B20" s="0">
-        <v>161.7897</v>
+        <v>170.6667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.42</v>
+        <v>0.5521</v>
       </c>
       <c r="B21" s="0">
-        <v>164.1751</v>
+        <v>173.8667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.44</v>
+        <v>0.6058</v>
       </c>
       <c r="B22" s="0">
-        <v>166.2571</v>
+        <v>177.0667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.46</v>
+        <v>0.6415</v>
       </c>
       <c r="B23" s="0">
-        <v>167.536</v>
+        <v>180.2667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.6941</v>
       </c>
       <c r="B24" s="0">
-        <v>168.7823</v>
+        <v>183.4667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5</v>
+        <v>0.7368</v>
       </c>
       <c r="B25" s="0">
-        <v>170.5652</v>
+        <v>185.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.52</v>
+        <v>0.7666</v>
       </c>
       <c r="B26" s="0">
-        <v>172.5774</v>
+        <v>187.7333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.54</v>
+        <v>0.7905</v>
       </c>
       <c r="B27" s="0">
-        <v>174.5724</v>
+        <v>188.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.56</v>
+        <v>0.8123</v>
       </c>
       <c r="B28" s="0">
-        <v>176.2779</v>
+        <v>190.9333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.58</v>
+        <v>0.8352</v>
       </c>
       <c r="B29" s="0">
-        <v>177.6682</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6</v>
+        <v>0.853</v>
       </c>
       <c r="B30" s="0">
-        <v>178.8529</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.62</v>
+        <v>0.8709</v>
       </c>
       <c r="B31" s="0">
-        <v>179.7365</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.8848</v>
       </c>
       <c r="B32" s="0">
-        <v>180.3031</v>
+        <v>193.0667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.66</v>
+        <v>0.8967</v>
       </c>
       <c r="B33" s="0">
-        <v>180.7613</v>
+        <v>195.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.68</v>
+        <v>0.9086</v>
       </c>
       <c r="B34" s="0">
-        <v>181.858</v>
+        <v>195.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7</v>
+        <v>0.9176</v>
       </c>
       <c r="B35" s="0">
-        <v>183.904</v>
+        <v>195.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.72</v>
+        <v>0.9315</v>
       </c>
       <c r="B36" s="0">
-        <v>185.9393</v>
+        <v>196.2667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.74</v>
+        <v>0.9414</v>
       </c>
       <c r="B37" s="0">
-        <v>187.0229</v>
+        <v>197.3333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.76</v>
+        <v>0.9513</v>
       </c>
       <c r="B38" s="0">
-        <v>187.5845</v>
+        <v>197.3333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.78</v>
+        <v>0.9623</v>
       </c>
       <c r="B39" s="0">
-        <v>188.189</v>
+        <v>197.3333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8</v>
+        <v>0.9732</v>
       </c>
       <c r="B40" s="0">
-        <v>189.093</v>
+        <v>197.3333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.82</v>
+        <v>0.9861</v>
       </c>
       <c r="B41" s="0">
-        <v>190.3014</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>191.4918</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>192.3422</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>193.1364</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>194.1916</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>195.3797</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B47" s="0">
-        <v>196.4828</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9603</v>
-      </c>
-      <c r="B48" s="0">
-        <v>196.2667</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9891</v>
-      </c>
-      <c r="B49" s="0">
-        <v>197.3333</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0566</v>
-      </c>
-      <c r="B50" s="0">
-        <v>85.3333</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0467</v>
-      </c>
-      <c r="B51" s="0">
-        <v>77.8667</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0288</v>
-      </c>
-      <c r="B52" s="0">
-        <v>58.6667</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0089</v>
-      </c>
-      <c r="B53" s="0">
-        <v>13.8667</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>198.4</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -19727,7 +18351,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19748,381 +18372,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.0288</v>
       </c>
       <c r="B3" s="0">
-        <v>26.4179</v>
+        <v>17.1661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.0964</v>
       </c>
       <c r="B4" s="0">
-        <v>59.6589</v>
+        <v>54.7217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.1053</v>
       </c>
       <c r="B5" s="0">
-        <v>63.4377</v>
+        <v>57.9441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.1132</v>
       </c>
       <c r="B6" s="0">
-        <v>65.4718</v>
+        <v>60.0945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.1331</v>
       </c>
       <c r="B7" s="0">
-        <v>67.5168</v>
+        <v>62.2577</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.153</v>
       </c>
       <c r="B8" s="0">
-        <v>69.7699</v>
+        <v>65.4918</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.1739</v>
       </c>
       <c r="B9" s="0">
-        <v>72.3167</v>
+        <v>69.798</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.1908</v>
       </c>
       <c r="B10" s="0">
-        <v>74.9247</v>
+        <v>71.958</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.2444</v>
       </c>
       <c r="B11" s="0">
-        <v>77.4976</v>
+        <v>79.5121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.2921</v>
       </c>
       <c r="B12" s="0">
-        <v>79.851</v>
+        <v>85.9889</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.3577</v>
       </c>
       <c r="B13" s="0">
-        <v>82.0047</v>
+        <v>90.343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.3945</v>
       </c>
       <c r="B14" s="0">
-        <v>84.026</v>
+        <v>93.5952</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.4542</v>
       </c>
       <c r="B15" s="0">
-        <v>85.9331</v>
+        <v>96.8719</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.5009</v>
       </c>
       <c r="B16" s="0">
-        <v>87.8377</v>
+        <v>100.1348</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.5545</v>
       </c>
       <c r="B17" s="0">
-        <v>89.5506</v>
+        <v>103.4051</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.6042</v>
       </c>
       <c r="B18" s="0">
-        <v>90.8436</v>
+        <v>105.6003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.643</v>
       </c>
       <c r="B19" s="0">
-        <v>91.9782</v>
+        <v>107.7837</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.6947</v>
       </c>
       <c r="B20" s="0">
-        <v>93.2154</v>
+        <v>109.9809</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.7374</v>
       </c>
       <c r="B21" s="0">
-        <v>94.4684</v>
+        <v>111.0977</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.7663</v>
       </c>
       <c r="B22" s="0">
-        <v>95.6661</v>
+        <v>113.2704</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.7921</v>
       </c>
       <c r="B23" s="0">
-        <v>96.9722</v>
+        <v>115.44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.813</v>
       </c>
       <c r="B24" s="0">
-        <v>98.4156</v>
+        <v>114.3914</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.8348</v>
       </c>
       <c r="B25" s="0">
-        <v>99.7729</v>
+        <v>115.4858</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.8567</v>
       </c>
       <c r="B26" s="0">
-        <v>100.8595</v>
+        <v>116.5801</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.8736</v>
       </c>
       <c r="B27" s="0">
-        <v>101.6898</v>
+        <v>117.6692</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.8875</v>
       </c>
       <c r="B28" s="0">
-        <v>102.4407</v>
+        <v>117.6841</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6</v>
+        <v>0.9014</v>
       </c>
       <c r="B29" s="0">
-        <v>103.3386</v>
+        <v>117.699</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.62</v>
+        <v>0.9124</v>
       </c>
       <c r="B30" s="0">
-        <v>104.4646</v>
+        <v>117.7107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.64</v>
+        <v>0.9223</v>
       </c>
       <c r="B31" s="0">
-        <v>105.557</v>
+        <v>118.7923</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.66</v>
+        <v>0.9333</v>
       </c>
       <c r="B32" s="0">
-        <v>106.3868</v>
+        <v>117.7331</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.68</v>
+        <v>0.9462</v>
       </c>
       <c r="B33" s="0">
-        <v>106.8865</v>
+        <v>117.7469</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7</v>
+        <v>0.9561</v>
       </c>
       <c r="B34" s="0">
-        <v>107.2237</v>
+        <v>118.8285</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.72</v>
+        <v>0.9631</v>
       </c>
       <c r="B35" s="0">
-        <v>107.7682</v>
+        <v>119.9069</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.74</v>
+        <v>0.974</v>
       </c>
       <c r="B36" s="0">
-        <v>108.8063</v>
+        <v>119.9186</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.76</v>
+        <v>0.981</v>
       </c>
       <c r="B37" s="0">
-        <v>110.0837</v>
+        <v>119.9261</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.78</v>
+        <v>0.9869</v>
       </c>
       <c r="B38" s="0">
-        <v>111.317</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B39" s="0">
-        <v>112.2738</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B40" s="0">
-        <v>112.9217</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B41" s="0">
-        <v>113.6323</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>114.6945</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>115.9728</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>117.2868</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>118.6883</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>120.1399</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9561</v>
-      </c>
-      <c r="B47" s="0">
-        <v>122.0414</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.979</v>
-      </c>
-      <c r="B48" s="0">
-        <v>123.1368</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0288</v>
-      </c>
-      <c r="B49" s="0">
-        <v>17.1661</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>119.9325</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -20131,7 +18667,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20152,405 +18688,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1</v>
+        <v>0.0463</v>
       </c>
       <c r="B3" s="0">
-        <v>422.9597</v>
+        <v>341.6828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.12</v>
+        <v>0.0295</v>
       </c>
       <c r="B4" s="0">
-        <v>441.153</v>
+        <v>287.0463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.14</v>
+        <v>0.0117</v>
       </c>
       <c r="B5" s="0">
-        <v>457.4471</v>
+        <v>168.1518</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.16</v>
+        <v>0.0751</v>
       </c>
       <c r="B6" s="0">
-        <v>472.926</v>
+        <v>394.1902</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.18</v>
+        <v>0.0949</v>
       </c>
       <c r="B7" s="0">
-        <v>485.9969</v>
+        <v>417.7723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2</v>
+        <v>0.1058</v>
       </c>
       <c r="B8" s="0">
-        <v>497.2295</v>
+        <v>429.5645</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.22</v>
+        <v>0.1148</v>
       </c>
       <c r="B9" s="0">
-        <v>507.3209</v>
+        <v>437.0707</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.24</v>
+        <v>0.1336</v>
       </c>
       <c r="B10" s="0">
-        <v>516.9882</v>
+        <v>455.2971</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.26</v>
+        <v>0.1535</v>
       </c>
       <c r="B11" s="0">
-        <v>525.9198</v>
+        <v>468.1697</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.28</v>
+        <v>0.1744</v>
       </c>
       <c r="B12" s="0">
-        <v>533.903</v>
+        <v>482.1144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3</v>
+        <v>0.1902</v>
       </c>
       <c r="B13" s="0">
-        <v>541.5552</v>
+        <v>493.9119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.32</v>
+        <v>0.2469</v>
       </c>
       <c r="B14" s="0">
-        <v>548.7708</v>
+        <v>519.6754</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.34</v>
+        <v>0.2926</v>
       </c>
       <c r="B15" s="0">
-        <v>555.2877</v>
+        <v>540.0724</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.36</v>
+        <v>0.3562</v>
       </c>
       <c r="B16" s="0">
-        <v>561.2834</v>
+        <v>560.4885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.38</v>
+        <v>0.3949</v>
       </c>
       <c r="B17" s="0">
-        <v>566.9761</v>
+        <v>572.3105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4</v>
+        <v>0.4535</v>
       </c>
       <c r="B18" s="0">
-        <v>572.5681</v>
+        <v>588.4375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.42</v>
+        <v>0.4993</v>
       </c>
       <c r="B19" s="0">
-        <v>578.0855</v>
+        <v>598.125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.44</v>
+        <v>0.5529</v>
       </c>
       <c r="B20" s="0">
-        <v>583.2674</v>
+        <v>608.892</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.46</v>
+        <v>0.6056</v>
       </c>
       <c r="B21" s="0">
-        <v>588.088</v>
+        <v>616.4451</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.48</v>
+        <v>0.6424</v>
       </c>
       <c r="B22" s="0">
-        <v>592.6845</v>
+        <v>625.0521</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5</v>
+        <v>0.696</v>
       </c>
       <c r="B23" s="0">
-        <v>596.8954</v>
+        <v>633.6771</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.52</v>
+        <v>0.7398</v>
       </c>
       <c r="B24" s="0">
-        <v>600.8586</v>
+        <v>640.1497</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.54</v>
+        <v>0.7686</v>
       </c>
       <c r="B25" s="0">
-        <v>604.935</v>
+        <v>644.4643</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.56</v>
+        <v>0.7934</v>
       </c>
       <c r="B26" s="0">
-        <v>608.9486</v>
+        <v>647.7038</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.58</v>
+        <v>0.8153</v>
       </c>
       <c r="B27" s="0">
-        <v>612.5509</v>
+        <v>650.9401</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6</v>
+        <v>0.8362</v>
       </c>
       <c r="B28" s="0">
-        <v>615.982</v>
+        <v>655.2462</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.62</v>
+        <v>0.856</v>
       </c>
       <c r="B29" s="0">
-        <v>619.1699</v>
+        <v>657.4094</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="B30" s="0">
-        <v>622.2743</v>
+        <v>659.5662</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.66</v>
+        <v>0.8849</v>
       </c>
       <c r="B31" s="0">
-        <v>625.8234</v>
+        <v>660.6531</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.68</v>
+        <v>0.8968</v>
       </c>
       <c r="B32" s="0">
-        <v>629.4262</v>
+        <v>663.8788</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7</v>
+        <v>0.9127</v>
       </c>
       <c r="B33" s="0">
-        <v>632.7209</v>
+        <v>664.9667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.72</v>
+        <v>0.9296</v>
       </c>
       <c r="B34" s="0">
-        <v>636.2021</v>
+        <v>668.1977</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.74</v>
+        <v>0.9425</v>
       </c>
       <c r="B35" s="0">
-        <v>639.5129</v>
+        <v>669.2825</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.76</v>
+        <v>0.9574</v>
       </c>
       <c r="B36" s="0">
-        <v>642.7376</v>
+        <v>670.3694</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.78</v>
+        <v>0.9713</v>
       </c>
       <c r="B37" s="0">
-        <v>645.8297</v>
+        <v>671.4552</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.8</v>
+        <v>0.9872</v>
       </c>
       <c r="B38" s="0">
-        <v>648.9861</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B39" s="0">
-        <v>652.4758</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B40" s="0">
-        <v>656.3121</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B41" s="0">
-        <v>660.1907</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B42" s="0">
-        <v>663.6229</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B43" s="0">
-        <v>666.7266</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B44" s="0">
-        <v>669.999</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B45" s="0">
-        <v>673.6363</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9614</v>
-      </c>
-      <c r="B46" s="0">
-        <v>674.6574</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9852</v>
-      </c>
-      <c r="B47" s="0">
-        <v>673.612</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0741</v>
-      </c>
-      <c r="B48" s="0">
-        <v>395.26</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0572</v>
-      </c>
-      <c r="B49" s="0">
-        <v>362.0425</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0463</v>
-      </c>
-      <c r="B50" s="0">
-        <v>341.6828</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0295</v>
-      </c>
-      <c r="B51" s="0">
-        <v>287.0463</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0117</v>
-      </c>
-      <c r="B52" s="0">
-        <v>168.1518</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>674.6851</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 73 Experimental evaluation of activated/Data73_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 73 Experimental evaluation of activated/Data73_all_graphs_excel.xlsx
@@ -5,21 +5,21 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 4 KOH(2.5_1)  0.1-1-0-50" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4 KOH(4_1)  0.1-1-0-500 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 4 NaOH(2.5_1)  0.1-1-0-5" sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 4 NaOH(4_1)  0.1-1-0-500" sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 5 0.15-0.25mm  0-1-0-800" sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 5 0.25-0.50mm  0-1-0-800" sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 5 0.50-1.00mm  0-1-0-800" sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 9 AC-1  0-1-0-800 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 9 AC-2  0-1-0-800 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 9 AC-3  0-1-0-800 " sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 9 AC-4  0-1-0-800 " sheetId="11" r:id="rId13"/>
-    <sheet name="Figure 9 AC-6  0-1-0-800 " sheetId="12" r:id="rId14"/>
-    <sheet name="Figure 9 AC-7  0-1-0-800 " sheetId="13" r:id="rId15"/>
-    <sheet name="Figure 9 AC-8  0-1-0-800 " sheetId="14" r:id="rId16"/>
-    <sheet name="Figure 9 AC-9  0-1-0-800 " sheetId="15" r:id="rId17"/>
+    <sheet name="Figure 4 KOH(2.5_1)  0.1&amp;1&amp;0&amp;50" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4 KOH(4_1)  0.1&amp;1&amp;0&amp;500 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4 NaOH(2.5_1)  0.1&amp;1&amp;0&amp;5" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 4 NaOH(4_1)  0.1&amp;1&amp;0&amp;500" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 5 0.15-0.25mm  0&amp;1&amp;0&amp;800" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 5 0.25-0.50mm  0&amp;1&amp;0&amp;800" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 5 0.50-1.00mm  0&amp;1&amp;0&amp;800" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 9 AC-1  0&amp;1&amp;0&amp;800 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 9 AC-2  0&amp;1&amp;0&amp;800 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 9 AC-3  0&amp;1&amp;0&amp;800 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 9 AC-4  0&amp;1&amp;0&amp;800 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 9 AC-6  0&amp;1&amp;0&amp;800 " sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 9 AC-7  0&amp;1&amp;0&amp;800 " sheetId="13" r:id="rId15"/>
+    <sheet name="Figure 9 AC-8  0&amp;1&amp;0&amp;800 " sheetId="14" r:id="rId16"/>
+    <sheet name="Figure 9 AC-9  0&amp;1&amp;0&amp;800 " sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -212,12 +212,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 KOH(2.5_1)  0.1-1-0-50'!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 KOH(2.5_1)  0.1&amp;1&amp;0&amp;50'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 KOH(2.5_1)  0.1-1-0-50'!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 KOH(2.5_1)  0.1&amp;1&amp;0&amp;50'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -526,12 +526,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-3  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 AC-3  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-3  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 AC-3  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -840,12 +840,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-4  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 AC-4  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-4  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 AC-4  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1154,12 +1154,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-6  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 AC-6  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-6  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 AC-6  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1468,12 +1468,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-7  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 AC-7  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-7  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 AC-7  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1782,12 +1782,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-8  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 AC-8  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-8  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 AC-8  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2096,12 +2096,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-9  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 AC-9  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-9  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 AC-9  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2410,12 +2410,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 KOH(4_1)  0.1-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 KOH(4_1)  0.1&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 KOH(4_1)  0.1-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 KOH(4_1)  0.1&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2724,12 +2724,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 NaOH(2.5_1)  0.1-1-0-5'!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 NaOH(2.5_1)  0.1&amp;1&amp;0&amp;5'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 NaOH(2.5_1)  0.1-1-0-5'!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 NaOH(2.5_1)  0.1&amp;1&amp;0&amp;5'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3038,12 +3038,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 NaOH(4_1)  0.1-1-0-500'!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 NaOH(4_1)  0.1&amp;1&amp;0&amp;500'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 NaOH(4_1)  0.1-1-0-500'!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 NaOH(4_1)  0.1&amp;1&amp;0&amp;500'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3352,12 +3352,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 0.15-0.25mm  0-1-0-800'!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 0.15-0.25mm  0&amp;1&amp;0&amp;800'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 0.15-0.25mm  0-1-0-800'!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 0.15-0.25mm  0&amp;1&amp;0&amp;800'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3666,12 +3666,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 0.25-0.50mm  0-1-0-800'!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 0.25-0.50mm  0&amp;1&amp;0&amp;800'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 0.25-0.50mm  0-1-0-800'!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 0.25-0.50mm  0&amp;1&amp;0&amp;800'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3980,12 +3980,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 0.50-1.00mm  0-1-0-800'!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 0.50-1.00mm  0&amp;1&amp;0&amp;800'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 0.50-1.00mm  0-1-0-800'!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 0.50-1.00mm  0&amp;1&amp;0&amp;800'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -4294,12 +4294,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-1  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 AC-1  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-1  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 AC-1  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -4608,12 +4608,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-2  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 9 AC-2  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 9 AC-2  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 9 AC-2  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
